--- a/data/case1/20/Ploss_13.xlsx
+++ b/data/case1/20/Ploss_13.xlsx
@@ -61,7 +61,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.011861768709124476</v>
+        <v>0.01664051291555424</v>
       </c>
     </row>
   </sheetData>
